--- a/10-ranking-Vinos.xlsx
+++ b/10-ranking-Vinos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Posición</t>
   </si>
@@ -29,6 +29,15 @@
     <t>Precio Sugerido</t>
   </si>
   <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
     <t>Tinto del Gaucho</t>
   </si>
   <si>
@@ -38,6 +47,15 @@
     <t>1700.0</t>
   </si>
   <si>
+    <t>Bodega Santa Fe</t>
+  </si>
+  <si>
+    <t>Zona Litoral</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
     <t>Reserva del Valle</t>
   </si>
   <si>
@@ -60,6 +78,12 @@
   </si>
   <si>
     <t>1500.0</t>
+  </si>
+  <si>
+    <t>Bodega Vistandes</t>
+  </si>
+  <si>
+    <t>Zona De Cuyo</t>
   </si>
   <si>
     <t>El Dorado de La Rioja</t>
@@ -155,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,22 +212,40 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -211,16 +253,25 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -228,16 +279,25 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>12</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -245,16 +305,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -262,16 +331,25 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -279,16 +357,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -296,16 +383,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -313,16 +409,25 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -330,16 +435,25 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -347,16 +461,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/10-ranking-Vinos.xlsx
+++ b/10-ranking-Vinos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Posición</t>
   </si>
@@ -38,6 +38,9 @@
     <t>País</t>
   </si>
   <si>
+    <t>Provincia</t>
+  </si>
+  <si>
     <t>Tinto del Gaucho</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>Argentina</t>
   </si>
   <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
     <t>Reserva del Valle</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
   </si>
   <si>
     <t>Zona De Cuyo</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
   </si>
   <si>
     <t>El Dorado de La Rioja</t>
@@ -179,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -221,31 +230,37 @@
       <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -253,25 +268,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -279,25 +297,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -305,25 +326,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -331,25 +355,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -357,25 +384,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -383,25 +413,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -409,25 +442,28 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -435,25 +471,28 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -461,25 +500,28 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/10-ranking-Vinos.xlsx
+++ b/10-ranking-Vinos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Posición</t>
   </si>
@@ -62,18 +62,12 @@
     <t>Santa Fe</t>
   </si>
   <si>
-    <t>Reserva del Valle</t>
+    <t>Merlot de la Tierra</t>
   </si>
   <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>2000.0</t>
-  </si>
-  <si>
-    <t>Merlot de la Tierra</t>
-  </si>
-  <si>
     <t>1300.0</t>
   </si>
   <si>
@@ -95,22 +89,13 @@
     <t>Mendoza</t>
   </si>
   <si>
-    <t>El Dorado de La Rioja</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>6000.0</t>
-  </si>
-  <si>
-    <t>Cafayate Gran Reserva</t>
-  </si>
-  <si>
-    <t>8.75</t>
-  </si>
-  <si>
-    <t>3500.0</t>
+    <t>Cafayate Tannat</t>
+  </si>
+  <si>
+    <t>8.600000000000001</t>
+  </si>
+  <si>
+    <t>2900.0</t>
   </si>
   <si>
     <t>Bodega Cafayate</t>
@@ -122,21 +107,6 @@
     <t>Salta</t>
   </si>
   <si>
-    <t>Cafayate Syrah</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>Cafayate Tannat</t>
-  </si>
-  <si>
-    <t>8.600000000000001</t>
-  </si>
-  <si>
-    <t>2900.0</t>
-  </si>
-  <si>
     <t>Patagonia Malbec</t>
   </si>
   <si>
@@ -171,6 +141,39 @@
   </si>
   <si>
     <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Río Negro Pinot Noir</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>3200.0</t>
+  </si>
+  <si>
+    <t>Trapiche Reserva</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>Cafayate Reserva Malbec</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>Río Negro Merlot</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>2100.0</t>
   </si>
 </sst>
 </file>
@@ -330,22 +333,22 @@
         <v>7.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -353,28 +356,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -382,28 +385,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -411,28 +414,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -440,28 +443,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -469,28 +472,28 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="G9" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -498,28 +501,28 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -527,28 +530,28 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/10-ranking-Vinos.xlsx
+++ b/10-ranking-Vinos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Posición</t>
   </si>
@@ -41,13 +41,13 @@
     <t>Provincia</t>
   </si>
   <si>
-    <t>Tinto del Gaucho</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>1700.0</t>
+    <t>Merlot de la Tierra</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>1300.0</t>
   </si>
   <si>
     <t>Bodega Santa Fe</t>
@@ -62,22 +62,82 @@
     <t>Santa Fe</t>
   </si>
   <si>
-    <t>Merlot de la Tierra</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>1300.0</t>
-  </si>
-  <si>
-    <t>Tesoro Nacional</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>1500.0</t>
+    <t>Trapiche Cabernet</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>Bodega Trapiche</t>
+  </si>
+  <si>
+    <t>Zona Pampeana</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Río Negro Pinot Noir</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>3200.0</t>
+  </si>
+  <si>
+    <t>Bodega del Fin del Mundo</t>
+  </si>
+  <si>
+    <t>Patagonia</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
+  </si>
+  <si>
+    <t>Trapiche Reserva</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>Cafayate Reserva Malbec</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>Bodega Cafayate</t>
+  </si>
+  <si>
+    <t>Zona Noroeste</t>
+  </si>
+  <si>
+    <t>Salta</t>
+  </si>
+  <si>
+    <t>Río Negro Merlot</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>2100.0</t>
+  </si>
+  <si>
+    <t>Cóndor Andino</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>5500.0</t>
   </si>
   <si>
     <t>Bodega Vistandes</t>
@@ -87,93 +147,6 @@
   </si>
   <si>
     <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Cafayate Tannat</t>
-  </si>
-  <si>
-    <t>8.600000000000001</t>
-  </si>
-  <si>
-    <t>2900.0</t>
-  </si>
-  <si>
-    <t>Bodega Cafayate</t>
-  </si>
-  <si>
-    <t>Zona Noroeste</t>
-  </si>
-  <si>
-    <t>Salta</t>
-  </si>
-  <si>
-    <t>Patagonia Malbec</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>2800.0</t>
-  </si>
-  <si>
-    <t>Bodega del Fin del Mundo</t>
-  </si>
-  <si>
-    <t>Patagonia</t>
-  </si>
-  <si>
-    <t>Río Negro</t>
-  </si>
-  <si>
-    <t>Trapiche Cabernet</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>2500.0</t>
-  </si>
-  <si>
-    <t>Bodega Trapiche</t>
-  </si>
-  <si>
-    <t>Zona Pampeana</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>Río Negro Pinot Noir</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>3200.0</t>
-  </si>
-  <si>
-    <t>Trapiche Reserva</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>2700.0</t>
-  </si>
-  <si>
-    <t>Cafayate Reserva Malbec</t>
-  </si>
-  <si>
-    <t>2600.0</t>
-  </si>
-  <si>
-    <t>Río Negro Merlot</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>2100.0</t>
   </si>
 </sst>
 </file>
@@ -218,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,16 +283,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -327,28 +300,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -356,28 +329,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -391,22 +364,22 @@
         <v>7.0</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="G6" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="H6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -414,28 +387,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>39</v>
-      </c>
       <c r="F7" t="s" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -443,115 +416,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="H8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/10-ranking-Vinos.xlsx
+++ b/10-ranking-Vinos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Posición</t>
   </si>
@@ -41,6 +41,27 @@
     <t>Provincia</t>
   </si>
   <si>
+    <t>Tinto del Gaucho</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>Bodega Santa Fe</t>
+  </si>
+  <si>
+    <t>Zona Litoral</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
     <t>Merlot de la Tierra</t>
   </si>
   <si>
@@ -50,16 +71,58 @@
     <t>1300.0</t>
   </si>
   <si>
-    <t>Bodega Santa Fe</t>
-  </si>
-  <si>
-    <t>Zona Litoral</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
+    <t>Tesoro Nacional</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>Bodega Vistandes</t>
+  </si>
+  <si>
+    <t>Zona De Cuyo</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Cafayate Tannat</t>
+  </si>
+  <si>
+    <t>8.600000000000001</t>
+  </si>
+  <si>
+    <t>2900.0</t>
+  </si>
+  <si>
+    <t>Bodega Cafayate</t>
+  </si>
+  <si>
+    <t>Zona Noroeste</t>
+  </si>
+  <si>
+    <t>Salta</t>
+  </si>
+  <si>
+    <t>Patagonia Malbec</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>2800.0</t>
+  </si>
+  <si>
+    <t>Bodega del Fin del Mundo</t>
+  </si>
+  <si>
+    <t>Patagonia</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
   </si>
   <si>
     <t>Trapiche Cabernet</t>
@@ -89,15 +152,6 @@
     <t>3200.0</t>
   </si>
   <si>
-    <t>Bodega del Fin del Mundo</t>
-  </si>
-  <si>
-    <t>Patagonia</t>
-  </si>
-  <si>
-    <t>Río Negro</t>
-  </si>
-  <si>
     <t>Trapiche Reserva</t>
   </si>
   <si>
@@ -113,15 +167,6 @@
     <t>2600.0</t>
   </si>
   <si>
-    <t>Bodega Cafayate</t>
-  </si>
-  <si>
-    <t>Zona Noroeste</t>
-  </si>
-  <si>
-    <t>Salta</t>
-  </si>
-  <si>
     <t>Río Negro Merlot</t>
   </si>
   <si>
@@ -129,24 +174,6 @@
   </si>
   <si>
     <t>2100.0</t>
-  </si>
-  <si>
-    <t>Cóndor Andino</t>
-  </si>
-  <si>
-    <t>6.85</t>
-  </si>
-  <si>
-    <t>5500.0</t>
-  </si>
-  <si>
-    <t>Bodega Vistandes</t>
-  </si>
-  <si>
-    <t>Zona De Cuyo</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
   </si>
 </sst>
 </file>
@@ -191,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -283,16 +310,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -300,28 +327,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="H4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -329,28 +356,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="G5" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="H5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -364,22 +391,22 @@
         <v>7.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -387,28 +414,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -416,28 +443,115 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="D8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="G9" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="H9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>44</v>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
